--- a/data/org/college/students/2027.xlsx
+++ b/data/org/college/students/2027.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\folder-as-datalake\data\org\college\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56DE657-78C4-4B0B-950E-F575B72D97A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9668F3-215B-4C80-A9FF-C5B6447D3F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1418" yWindow="1388" windowWidth="11850" windowHeight="10072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,94 +33,94 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Lord Ernest Rutherford</t>
-  </si>
-  <si>
-    <t>Guglielmo Marconi</t>
-  </si>
-  <si>
-    <t>Charles Glover Barkla</t>
-  </si>
-  <si>
-    <t>Otto Hahn</t>
-  </si>
-  <si>
-    <t>Sir Owen Richardson</t>
-  </si>
-  <si>
-    <t>Clinton Joseph Davisson</t>
-  </si>
-  <si>
-    <t>Max Born</t>
-  </si>
-  <si>
-    <t>Percy Williams Bridgman</t>
-  </si>
-  <si>
-    <t>James Franck</t>
-  </si>
-  <si>
-    <t>Victor Franz Hess</t>
-  </si>
-  <si>
-    <t>Peter Debye</t>
-  </si>
-  <si>
-    <t>Karl Manne Georg Siegbahn</t>
-  </si>
-  <si>
-    <t>Gustav Hertz</t>
-  </si>
-  <si>
-    <t>Erwin Schrödinger</t>
-  </si>
-  <si>
-    <t>Sir Chandrasekhara Raman</t>
-  </si>
-  <si>
-    <t>Otto Stern</t>
-  </si>
-  <si>
-    <t>Frits Zernike</t>
-  </si>
-  <si>
-    <t>Sir William Lawrence Bragg</t>
-  </si>
-  <si>
-    <t>Walther Bothe</t>
-  </si>
-  <si>
-    <t>Sir James Chadwick</t>
-  </si>
-  <si>
-    <t>Sir Edward Appleton</t>
-  </si>
-  <si>
-    <t>Prince Louis-Victor de Broglie</t>
-  </si>
-  <si>
-    <t>Arthur Compton</t>
-  </si>
-  <si>
-    <t>Sir George Paget Thomson</t>
-  </si>
-  <si>
-    <t>Harold Clayton Urey</t>
-  </si>
-  <si>
-    <t>Pjotr Leonidovich Kapitsa</t>
-  </si>
-  <si>
-    <t>Robert S. Mulliken</t>
-  </si>
-  <si>
-    <t>Igor Y. Tamm</t>
-  </si>
-  <si>
-    <t>Lord Patrick Maynard Stuart Blackett</t>
-  </si>
-  <si>
-    <t>Sir John Cockcroft</t>
+    <t>Ernest Marconi</t>
+  </si>
+  <si>
+    <t>Guglielmo Rutherford</t>
+  </si>
+  <si>
+    <t>Glover Hanh</t>
+  </si>
+  <si>
+    <t>Otto Barkla</t>
+  </si>
+  <si>
+    <t>Owen Davisson</t>
+  </si>
+  <si>
+    <t>Clinton Richardson</t>
+  </si>
+  <si>
+    <t>Max Bridgman</t>
+  </si>
+  <si>
+    <t>Percy Born</t>
+  </si>
+  <si>
+    <t>James Hess</t>
+  </si>
+  <si>
+    <t>Victor Franck</t>
+  </si>
+  <si>
+    <t>Peter Siegbahn</t>
+  </si>
+  <si>
+    <t>Karl Georg Debye</t>
+  </si>
+  <si>
+    <t>Erwin Hertz</t>
+  </si>
+  <si>
+    <t>Gustav Schrödinger</t>
+  </si>
+  <si>
+    <t>Chandrasekhara Stern</t>
+  </si>
+  <si>
+    <t>Otto Raman</t>
+  </si>
+  <si>
+    <t>Frits Bragg\</t>
+  </si>
+  <si>
+    <t>William Zernike</t>
+  </si>
+  <si>
+    <t>Walther Chadwick</t>
+  </si>
+  <si>
+    <t>Sir James Bothe</t>
+  </si>
+  <si>
+    <t>Sir Edward de Broglie</t>
+  </si>
+  <si>
+    <t>Louis-Victor Appleton</t>
+  </si>
+  <si>
+    <t>Arthur Paget</t>
+  </si>
+  <si>
+    <t>Abdul Compton</t>
+  </si>
+  <si>
+    <t>Harold Clayton Kapitsa</t>
+  </si>
+  <si>
+    <t>Pjotr Urey Leonidovich</t>
+  </si>
+  <si>
+    <t>Robert S. Tamm</t>
+  </si>
+  <si>
+    <t>Igor Y. Mulliken</t>
+  </si>
+  <si>
+    <t>Lord Stuart Blackett Cockcoft</t>
+  </si>
+  <si>
+    <t>Sir John Maynard</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
         <v>20227013</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -563,7 +563,7 @@
         <v>20227014</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
